--- a/AED/Planilla Individual de Notas 2020.xlsx
+++ b/AED/Planilla Individual de Notas 2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Notas" sheetId="1" state="visible" r:id="rId2"/>
@@ -747,11 +747,11 @@
   </sheetPr>
   <dimension ref="A1:AS24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.7"/>
@@ -1121,7 +1121,9 @@
       <c r="D6" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="E6" s="13"/>
+      <c r="E6" s="13" t="n">
+        <v>10</v>
+      </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
@@ -1151,7 +1153,7 @@
       <c r="AF6" s="13"/>
       <c r="AG6" s="14" t="n">
         <f aca="false">SUM(C6:AF6)/30</f>
-        <v>0.65</v>
+        <v>0.983333333333333</v>
       </c>
       <c r="AH6" s="5"/>
       <c r="AI6" s="13"/>
@@ -2125,11 +2127,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2148,11 +2150,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/AED/Planilla Individual de Notas 2020.xlsx
+++ b/AED/Planilla Individual de Notas 2020.xlsx
@@ -748,10 +748,10 @@
   <dimension ref="A1:AS24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="N6" activeCellId="0" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.7"/>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="D6" s="13" t="n">
         <v>10</v>
@@ -1153,16 +1153,18 @@
       <c r="AF6" s="13"/>
       <c r="AG6" s="14" t="n">
         <f aca="false">SUM(C6:AF6)/30</f>
-        <v>0.983333333333333</v>
+        <v>0.966666666666667</v>
       </c>
       <c r="AH6" s="5"/>
-      <c r="AI6" s="13"/>
+      <c r="AI6" s="13" t="n">
+        <v>10</v>
+      </c>
       <c r="AJ6" s="13"/>
       <c r="AK6" s="13"/>
       <c r="AL6" s="13"/>
       <c r="AM6" s="14" t="n">
         <f aca="false">SUM(AI6:AL6)/4</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AN6" s="5"/>
       <c r="AO6" s="13"/>
@@ -1310,7 +1312,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="19" t="n">
         <f aca="false">IF(AS6&gt;=1, IF(COUNTIF(AO6:AR6, "&gt;=1") &lt;&gt;4, ROUND(AG6*AG7 + AM6*AM7 + SUM(AO6:AS6)*AO7, 0), ROUND(AG6*AG7 + AM6*AM7 + (SUM(AO6:AS6) - MIN(AO6:AS6))*AO7, 0)), ROUND(AG6*AG7 + AM6*AM7 + SUM(AO6:AR6)*AO7, 0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -2131,7 +2133,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2154,7 +2156,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/AED/Planilla Individual de Notas 2020.xlsx
+++ b/AED/Planilla Individual de Notas 2020.xlsx
@@ -748,10 +748,10 @@
   <dimension ref="A1:AS24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N6" activeCellId="0" sqref="N6"/>
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.7"/>
@@ -1124,8 +1124,12 @@
       <c r="E6" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="F6" s="13" t="n">
+        <v>9</v>
+      </c>
+      <c r="G6" s="13" t="n">
+        <v>9</v>
+      </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
@@ -1153,7 +1157,7 @@
       <c r="AF6" s="13"/>
       <c r="AG6" s="14" t="n">
         <f aca="false">SUM(C6:AF6)/30</f>
-        <v>0.966666666666667</v>
+        <v>1.56666666666667</v>
       </c>
       <c r="AH6" s="5"/>
       <c r="AI6" s="13" t="n">
@@ -2133,7 +2137,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2156,7 +2160,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
